--- a/Tableau_Viz/tableau_viz3.xlsx
+++ b/Tableau_Viz/tableau_viz3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\Data_Analyst_Projects\Tableau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\Data_Analyst_Projects\Tableau\Tableau_Viz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6BDAF-4DC5-44DE-894D-D062BC62C80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A29E8D7-7A07-45C1-B316-8C84145CDF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="240" windowWidth="19548" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="215">
   <si>
     <t>location</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Jordan</t>
   </si>
   <si>
-    <t>European Union</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Kuwait</t>
   </si>
   <si>
-    <t>North America</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t>Europe</t>
-  </si>
-  <si>
     <t>Seychelles</t>
   </si>
   <si>
@@ -189,9 +180,6 @@
     <t>Palestine</t>
   </si>
   <si>
-    <t>South America</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -306,9 +294,6 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>World</t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -387,9 +372,6 @@
     <t>Cuba</t>
   </si>
   <si>
-    <t>Asia</t>
-  </si>
-  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
@@ -426,9 +408,6 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Africa</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -531,9 +510,6 @@
     <t>Eritrea</t>
   </si>
   <si>
-    <t>Oceania</t>
-  </si>
-  <si>
     <t>Mauritius</t>
   </si>
   <si>
@@ -636,67 +612,64 @@
     <t>Curacao</t>
   </si>
   <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Faeroe Islands</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Northern Cyprus</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Faeroe Islands</t>
-  </si>
-  <si>
-    <t>Falkland Islands</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
-    <t>Northern Cyprus</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1495,13 +1468,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>444919060</v>
+        <v>212559409</v>
       </c>
       <c r="C34">
-        <v>30771214</v>
+        <v>14659011</v>
       </c>
       <c r="D34">
-        <v>6.9161375104946003</v>
+        <v>6.8964300705220696</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1509,13 +1482,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>212559409</v>
+        <v>9006400</v>
       </c>
       <c r="C35">
-        <v>14659011</v>
+        <v>618870</v>
       </c>
       <c r="D35">
-        <v>6.8964300705220696</v>
+        <v>6.8714469710428103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1523,13 +1496,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>9006400</v>
+        <v>441539</v>
       </c>
       <c r="C36">
-        <v>618870</v>
+        <v>30292</v>
       </c>
       <c r="D36">
-        <v>6.8714469710428103</v>
+        <v>6.8605491247658801</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,13 +1510,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>441539</v>
+        <v>60461828</v>
       </c>
       <c r="C37">
-        <v>30292</v>
+        <v>4022653</v>
       </c>
       <c r="D37">
-        <v>6.8605491247658801</v>
+        <v>6.6532110143940697</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,13 +1524,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>60461828</v>
+        <v>45195777</v>
       </c>
       <c r="C38">
-        <v>4022653</v>
+        <v>2977363</v>
       </c>
       <c r="D38">
-        <v>6.6532110143940697</v>
+        <v>6.5877017669150799</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,13 +1538,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>45195777</v>
+        <v>67886004</v>
       </c>
       <c r="C39">
-        <v>2977363</v>
+        <v>4432246</v>
       </c>
       <c r="D39">
-        <v>6.5877017669150799</v>
+        <v>6.5289540388914302</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1579,13 +1552,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>67886004</v>
+        <v>4270563</v>
       </c>
       <c r="C40">
-        <v>4432246</v>
+        <v>273991</v>
       </c>
       <c r="D40">
-        <v>6.5289540388914302</v>
+        <v>6.4158051292066203</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1593,13 +1566,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>4270563</v>
+        <v>1886202</v>
       </c>
       <c r="C41">
-        <v>273991</v>
+        <v>118558</v>
       </c>
       <c r="D41">
-        <v>6.4158051292066203</v>
+        <v>6.2855409971996599</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1607,13 +1580,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>592072204</v>
+        <v>19116209</v>
       </c>
       <c r="C42">
-        <v>37529488</v>
+        <v>1198245</v>
       </c>
       <c r="D42">
-        <v>6.3386674372573699</v>
+        <v>6.26821458166732</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1621,13 +1594,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1886202</v>
+        <v>39244</v>
       </c>
       <c r="C43">
-        <v>118558</v>
+        <v>2454</v>
       </c>
       <c r="D43">
-        <v>6.2855409971996599</v>
+        <v>6.2531852002853903</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,13 +1608,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>19116209</v>
+        <v>4033963</v>
       </c>
       <c r="C44">
-        <v>1198245</v>
+        <v>250837</v>
       </c>
       <c r="D44">
-        <v>6.26821458166732</v>
+        <v>6.2181284260663796</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,13 +1622,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>39244</v>
+        <v>3280815</v>
       </c>
       <c r="C45">
-        <v>2454</v>
+        <v>198461</v>
       </c>
       <c r="D45">
-        <v>6.2531852002853903</v>
+        <v>6.04913718085293</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,13 +1636,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>4033963</v>
+        <v>98340</v>
       </c>
       <c r="C46">
-        <v>250837</v>
+        <v>5873</v>
       </c>
       <c r="D46">
-        <v>6.2181284260663796</v>
+        <v>5.9721374822045998</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1677,13 +1650,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>3280815</v>
+        <v>6948445</v>
       </c>
       <c r="C47">
-        <v>198461</v>
+        <v>404380</v>
       </c>
       <c r="D47">
-        <v>6.04913718085293</v>
+        <v>5.8197193760618404</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1691,13 +1664,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>748680069</v>
+        <v>5101416</v>
       </c>
       <c r="C48">
-        <v>44863478</v>
+        <v>296462</v>
       </c>
       <c r="D48">
-        <v>5.9923430391199597</v>
+        <v>5.8113668832339904</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1705,13 +1678,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>98340</v>
+        <v>84339067</v>
       </c>
       <c r="C49">
-        <v>5873</v>
+        <v>4820591</v>
       </c>
       <c r="D49">
-        <v>5.9721374822045998</v>
+        <v>5.71572720860192</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1719,13 +1692,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6948445</v>
+        <v>3473727</v>
       </c>
       <c r="C50">
-        <v>404380</v>
+        <v>198428</v>
       </c>
       <c r="D50">
-        <v>5.8197193760618404</v>
+        <v>5.71225084757668</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1733,13 +1706,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>5101416</v>
+        <v>50882884</v>
       </c>
       <c r="C51">
-        <v>296462</v>
+        <v>2859724</v>
       </c>
       <c r="D51">
-        <v>5.8113668832339904</v>
+        <v>5.6202081627291403</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1747,13 +1720,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>430759772</v>
+        <v>540542</v>
       </c>
       <c r="C52">
-        <v>24878216</v>
+        <v>29835</v>
       </c>
       <c r="D52">
-        <v>5.7754269588572402</v>
+        <v>5.5194600974577401</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1761,13 +1734,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>84339067</v>
+        <v>19237682</v>
       </c>
       <c r="C53">
-        <v>4820591</v>
+        <v>1055265</v>
       </c>
       <c r="D53">
-        <v>5.71572720860192</v>
+        <v>5.4854061939478997</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1775,13 +1748,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>3473727</v>
+        <v>32971846</v>
       </c>
       <c r="C54">
-        <v>198428</v>
+        <v>1799445</v>
       </c>
       <c r="D54">
-        <v>5.71225084757668</v>
+        <v>5.4575197275881999</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1789,13 +1762,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>50882884</v>
+        <v>1932774</v>
       </c>
       <c r="C55">
-        <v>2859724</v>
+        <v>103638</v>
       </c>
       <c r="D55">
-        <v>5.6202081627291403</v>
+        <v>5.3621375287540101</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1803,13 +1776,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>540542</v>
+        <v>9890400</v>
       </c>
       <c r="C56">
-        <v>29835</v>
+        <v>520236</v>
       </c>
       <c r="D56">
-        <v>5.5194600974577401</v>
+        <v>5.2600097063819504</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1817,13 +1790,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>19237682</v>
+        <v>4937796</v>
       </c>
       <c r="C57">
-        <v>1055265</v>
+        <v>248870</v>
       </c>
       <c r="D57">
-        <v>5.4854061939478997</v>
+        <v>5.0401029123114798</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1831,13 +1804,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>32971846</v>
+        <v>5094114</v>
       </c>
       <c r="C58">
-        <v>1799445</v>
+        <v>250991</v>
       </c>
       <c r="D58">
-        <v>5.4575197275881999</v>
+        <v>4.9270785852063801</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1845,13 +1818,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>1932774</v>
+        <v>43733759</v>
       </c>
       <c r="C59">
-        <v>103638</v>
+        <v>2124070</v>
       </c>
       <c r="D59">
-        <v>5.3621375287540101</v>
+        <v>4.8568201054933304</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1859,13 +1832,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>9890400</v>
+        <v>2877800</v>
       </c>
       <c r="C60">
-        <v>520236</v>
+        <v>131085</v>
       </c>
       <c r="D60">
-        <v>5.2600097063819504</v>
+        <v>4.5550420460073697</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1873,13 +1846,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>4937796</v>
+        <v>5792203</v>
       </c>
       <c r="C61">
-        <v>248870</v>
+        <v>251249</v>
       </c>
       <c r="D61">
-        <v>5.0401029123114798</v>
+        <v>4.3377105394959399</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1887,13 +1860,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>5094114</v>
+        <v>555988</v>
       </c>
       <c r="C62">
-        <v>250991</v>
+        <v>23882</v>
       </c>
       <c r="D62">
-        <v>4.9270785852063801</v>
+        <v>4.2954164478369998</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1901,13 +1874,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>43733759</v>
+        <v>83783945</v>
       </c>
       <c r="C63">
-        <v>2124070</v>
+        <v>3405365</v>
       </c>
       <c r="D63">
-        <v>4.8568201054933304</v>
+        <v>4.0644600824179404</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1915,13 +1888,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>2877800</v>
+        <v>7132530</v>
       </c>
       <c r="C64">
-        <v>131085</v>
+        <v>279077</v>
       </c>
       <c r="D64">
-        <v>4.5550420460073697</v>
+        <v>3.9127350323097101</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1929,13 +1902,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>5792203</v>
+        <v>9449321</v>
       </c>
       <c r="C65">
-        <v>251249</v>
+        <v>358738</v>
       </c>
       <c r="D65">
-        <v>4.3377105394959399</v>
+        <v>3.7964420935641798</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1943,13 +1916,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>555988</v>
+        <v>5106622</v>
       </c>
       <c r="C66">
-        <v>23882</v>
+        <v>193253</v>
       </c>
       <c r="D66">
-        <v>4.2954164478369998</v>
+        <v>3.78436077704596</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1957,13 +1930,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>83783945</v>
+        <v>809</v>
       </c>
       <c r="C67">
-        <v>3405365</v>
+        <v>27</v>
       </c>
       <c r="D67">
-        <v>4.0644600824179404</v>
+        <v>3.3374536464771301</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1971,13 +1944,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>7132530</v>
+        <v>10423056</v>
       </c>
       <c r="C68">
-        <v>279077</v>
+        <v>345033</v>
       </c>
       <c r="D68">
-        <v>3.9127350323097101</v>
+        <v>3.3102863497999002</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1985,13 +1958,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>9449321</v>
+        <v>145934460</v>
       </c>
       <c r="C69">
-        <v>358738</v>
+        <v>4750755</v>
       </c>
       <c r="D69">
-        <v>3.7964420935641798</v>
+        <v>3.2554031446719298</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1999,13 +1972,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>5106622</v>
+        <v>37742157</v>
       </c>
       <c r="C70">
-        <v>193253</v>
+        <v>1228367</v>
       </c>
       <c r="D70">
-        <v>3.78436077704596</v>
+        <v>3.2546285046718499</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2013,13 +1986,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>809</v>
+        <v>397621</v>
       </c>
       <c r="C71">
-        <v>27</v>
+        <v>12668</v>
       </c>
       <c r="D71">
-        <v>3.3374536464771301</v>
+        <v>3.1859484282771802</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2027,13 +2000,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>10423056</v>
+        <v>10139175</v>
       </c>
       <c r="C72">
-        <v>345033</v>
+        <v>319109</v>
       </c>
       <c r="D72">
-        <v>3.3102863497999002</v>
+        <v>3.1472876244862098</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2041,13 +2014,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>145934460</v>
+        <v>83992953</v>
       </c>
       <c r="C73">
-        <v>4750755</v>
+        <v>2499077</v>
       </c>
       <c r="D73">
-        <v>3.2554031446719298</v>
+        <v>2.9753412765473302</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2055,13 +2028,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>37742157</v>
+        <v>59308690</v>
       </c>
       <c r="C74">
-        <v>1228367</v>
+        <v>1581210</v>
       </c>
       <c r="D74">
-        <v>3.2546285046718499</v>
+        <v>2.6660679910481901</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2069,13 +2042,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>397621</v>
+        <v>393248</v>
       </c>
       <c r="C75">
-        <v>12668</v>
+        <v>10453</v>
       </c>
       <c r="D75">
-        <v>3.1859484282771802</v>
+        <v>2.6581190495565101</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,13 +2056,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>10139175</v>
+        <v>40222503</v>
       </c>
       <c r="C76">
-        <v>319109</v>
+        <v>1065199</v>
       </c>
       <c r="D76">
-        <v>3.1472876244862098</v>
+        <v>2.6482663199751602</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2097,13 +2070,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>83992953</v>
+        <v>11818618</v>
       </c>
       <c r="C77">
-        <v>2499077</v>
+        <v>309119</v>
       </c>
       <c r="D77">
-        <v>2.9753412765473302</v>
+        <v>2.6155257746717901</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2111,13 +2084,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>59308690</v>
+        <v>11673029</v>
       </c>
       <c r="C78">
-        <v>1581210</v>
+        <v>303732</v>
       </c>
       <c r="D78">
-        <v>2.6660679910481901</v>
+        <v>2.6019981617453398</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2125,13 +2098,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>393248</v>
+        <v>6871287</v>
       </c>
       <c r="C79">
-        <v>10453</v>
+        <v>177508</v>
       </c>
       <c r="D79">
-        <v>2.6581190495565101</v>
+        <v>2.5833297313880199</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2139,13 +2112,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>40222503</v>
+        <v>183629</v>
       </c>
       <c r="C80">
-        <v>1065199</v>
+        <v>4552</v>
       </c>
       <c r="D80">
-        <v>2.6482663199751602</v>
+        <v>2.4789112830761999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2153,13 +2126,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>11818618</v>
+        <v>10847904</v>
       </c>
       <c r="C81">
-        <v>309119</v>
+        <v>266561</v>
       </c>
       <c r="D81">
-        <v>2.6155257746717901</v>
+        <v>2.4572581025790798</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2167,13 +2140,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>11673029</v>
+        <v>17643060</v>
       </c>
       <c r="C82">
-        <v>303732</v>
+        <v>381862</v>
       </c>
       <c r="D82">
-        <v>2.6019981617453398</v>
+        <v>2.1643751140675098</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2181,13 +2154,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>6871287</v>
+        <v>9904608</v>
       </c>
       <c r="C83">
-        <v>177508</v>
+        <v>212333</v>
       </c>
       <c r="D83">
-        <v>2.5833297313880199</v>
+        <v>2.1437799456576201</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2195,13 +2168,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>183629</v>
+        <v>5421242</v>
       </c>
       <c r="C84">
-        <v>4552</v>
+        <v>112970</v>
       </c>
       <c r="D84">
-        <v>2.4789112830761999</v>
+        <v>2.0838398285854098</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2209,13 +2182,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>10847904</v>
+        <v>18776707</v>
       </c>
       <c r="C85">
-        <v>266561</v>
+        <v>375539</v>
       </c>
       <c r="D85">
-        <v>2.4572581025790798</v>
+        <v>2.0000258831327602</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2223,13 +2196,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>17643060</v>
+        <v>2351625</v>
       </c>
       <c r="C86">
-        <v>381862</v>
+        <v>46934</v>
       </c>
       <c r="D86">
-        <v>2.1643751140675098</v>
+        <v>1.99581140700579</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2237,13 +2210,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>9904608</v>
+        <v>2540916</v>
       </c>
       <c r="C87">
-        <v>212333</v>
+        <v>48351</v>
       </c>
       <c r="D87">
-        <v>2.1437799456576201</v>
+        <v>1.90289643577356</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2251,13 +2224,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>5421242</v>
+        <v>341250</v>
       </c>
       <c r="C88">
-        <v>112970</v>
+        <v>6472</v>
       </c>
       <c r="D88">
-        <v>2.0838398285854098</v>
+        <v>1.8965567765567799</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2265,13 +2238,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>18776707</v>
+        <v>128932753</v>
       </c>
       <c r="C89">
-        <v>375539</v>
+        <v>2344755</v>
       </c>
       <c r="D89">
-        <v>2.0000258831327602</v>
+        <v>1.81858755470769</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2279,13 +2252,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>2351625</v>
+        <v>586634</v>
       </c>
       <c r="C90">
-        <v>46934</v>
+        <v>10363</v>
       </c>
       <c r="D90">
-        <v>1.99581140700579</v>
+        <v>1.7665188175250699</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,13 +2266,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>7794798729</v>
+        <v>786559</v>
       </c>
       <c r="C91">
-        <v>151399480</v>
+        <v>13283</v>
       </c>
       <c r="D91">
-        <v>1.9423141669678901</v>
+        <v>1.6887480786565301</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2307,13 +2280,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>2540916</v>
+        <v>110947</v>
       </c>
       <c r="C92">
-        <v>48351</v>
+        <v>1864</v>
       </c>
       <c r="D92">
-        <v>1.90289643577356</v>
+        <v>1.6800814803464701</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2321,13 +2294,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>341250</v>
+        <v>1160164</v>
       </c>
       <c r="C93">
-        <v>6472</v>
+        <v>18458</v>
       </c>
       <c r="D93">
-        <v>1.8965567765567799</v>
+        <v>1.5909819646187999</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2335,13 +2308,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>128932753</v>
+        <v>5540718</v>
       </c>
       <c r="C94">
-        <v>2344755</v>
+        <v>86808</v>
       </c>
       <c r="D94">
-        <v>1.81858755470769</v>
+        <v>1.56672835542253</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2349,13 +2322,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>586634</v>
+        <v>2961161</v>
       </c>
       <c r="C95">
-        <v>10363</v>
+        <v>45578</v>
       </c>
       <c r="D95">
-        <v>1.7665188175250699</v>
+        <v>1.5391935798154801</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2363,13 +2336,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>786559</v>
+        <v>6524191</v>
       </c>
       <c r="C96">
-        <v>13283</v>
+        <v>95275</v>
       </c>
       <c r="D96">
-        <v>1.6887480786565301</v>
+        <v>1.4603343157795301</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2377,13 +2350,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>110947</v>
+        <v>1380004385</v>
       </c>
       <c r="C97">
-        <v>1864</v>
+        <v>19164969</v>
       </c>
       <c r="D97">
-        <v>1.6800814803464701</v>
+        <v>1.3887614567253701</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2391,13 +2364,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>1160164</v>
+        <v>36910558</v>
       </c>
       <c r="C98">
-        <v>18458</v>
+        <v>511249</v>
       </c>
       <c r="D98">
-        <v>1.5909819646187999</v>
+        <v>1.38510233305061</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2405,13 +2378,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>5540718</v>
+        <v>287371</v>
       </c>
       <c r="C99">
-        <v>86808</v>
+        <v>3855</v>
       </c>
       <c r="D99">
-        <v>1.56672835542253</v>
+        <v>1.3414714776369201</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2419,13 +2392,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>2961161</v>
+        <v>17915567</v>
       </c>
       <c r="C100">
-        <v>45578</v>
+        <v>227671</v>
       </c>
       <c r="D100">
-        <v>1.5391935798154801</v>
+        <v>1.2707998580229101</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2433,13 +2406,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>6524191</v>
+        <v>32365998</v>
       </c>
       <c r="C101">
-        <v>95275</v>
+        <v>408713</v>
       </c>
       <c r="D101">
-        <v>1.4603343157795301</v>
+        <v>1.2627850993502501</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2447,13 +2420,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>1380004385</v>
+        <v>97928</v>
       </c>
       <c r="C102">
-        <v>19164969</v>
+        <v>1232</v>
       </c>
       <c r="D102">
-        <v>1.3887614567253701</v>
+        <v>1.25806715137652</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2461,13 +2434,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>36910558</v>
+        <v>34813867</v>
       </c>
       <c r="C103">
-        <v>511249</v>
+        <v>417363</v>
       </c>
       <c r="D103">
-        <v>1.38510233305061</v>
+        <v>1.19884125483676</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2475,13 +2448,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>287371</v>
+        <v>3278292</v>
       </c>
       <c r="C104">
-        <v>3855</v>
+        <v>37285</v>
       </c>
       <c r="D104">
-        <v>1.3414714776369201</v>
+        <v>1.13733004869609</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2489,13 +2462,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>17915567</v>
+        <v>988002</v>
       </c>
       <c r="C105">
-        <v>227671</v>
+        <v>11100</v>
       </c>
       <c r="D105">
-        <v>1.2707998580229101</v>
+        <v>1.1234795071265</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2503,13 +2476,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>32365998</v>
+        <v>29136808</v>
       </c>
       <c r="C106">
-        <v>408713</v>
+        <v>323187</v>
       </c>
       <c r="D106">
-        <v>1.2627850993502501</v>
+        <v>1.1092052362084399</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2517,13 +2490,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>97928</v>
+        <v>6486201</v>
       </c>
       <c r="C107">
-        <v>1232</v>
+        <v>69198</v>
       </c>
       <c r="D107">
-        <v>1.25806715137652</v>
+        <v>1.0668494547116301</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2531,13 +2504,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>34813867</v>
+        <v>219161</v>
       </c>
       <c r="C108">
-        <v>417363</v>
+        <v>2302</v>
       </c>
       <c r="D108">
-        <v>1.19884125483676</v>
+        <v>1.0503693631622399</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2545,13 +2518,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>3278292</v>
+        <v>5850343</v>
       </c>
       <c r="C109">
-        <v>37285</v>
+        <v>61145</v>
       </c>
       <c r="D109">
-        <v>1.13733004869609</v>
+        <v>1.04515239533819</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2559,13 +2532,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>988002</v>
+        <v>2225728</v>
       </c>
       <c r="C110">
-        <v>11100</v>
+        <v>23075</v>
       </c>
       <c r="D110">
-        <v>1.1234795071265</v>
+        <v>1.0367394398596801</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2573,13 +2546,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>29136808</v>
+        <v>109581085</v>
       </c>
       <c r="C111">
-        <v>323187</v>
+        <v>1037460</v>
       </c>
       <c r="D111">
-        <v>1.1092052362084399</v>
+        <v>0.94675098352968501</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2587,13 +2560,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>6486201</v>
+        <v>11326616</v>
       </c>
       <c r="C112">
-        <v>69198</v>
+        <v>106707</v>
       </c>
       <c r="D112">
-        <v>1.0668494547116301</v>
+        <v>0.94209073566191304</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2601,13 +2574,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>219161</v>
+        <v>1399491</v>
       </c>
       <c r="C113">
-        <v>2302</v>
+        <v>10824</v>
       </c>
       <c r="D113">
-        <v>1.0503693631622399</v>
+        <v>0.77342405203034503</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2615,13 +2588,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>5850343</v>
+        <v>28435943</v>
       </c>
       <c r="C114">
-        <v>61145</v>
+        <v>197683</v>
       </c>
       <c r="D114">
-        <v>1.04515239533819</v>
+        <v>0.695187073627205</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2629,13 +2602,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>2225728</v>
+        <v>273523621</v>
       </c>
       <c r="C115">
-        <v>23075</v>
+        <v>1668368</v>
       </c>
       <c r="D115">
-        <v>1.0367394398596801</v>
+        <v>0.60995390229935598</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2643,13 +2616,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>109581085</v>
+        <v>1402985</v>
       </c>
       <c r="C116">
-        <v>1037460</v>
+        <v>7694</v>
       </c>
       <c r="D116">
-        <v>0.94675098352968501</v>
+        <v>0.54840215682990201</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2657,13 +2630,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>11326616</v>
+        <v>21413250</v>
       </c>
       <c r="C117">
-        <v>106707</v>
+        <v>108146</v>
       </c>
       <c r="D117">
-        <v>0.94209073566191304</v>
+        <v>0.50504243867698695</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2671,13 +2644,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>4639847425</v>
+        <v>2142252</v>
       </c>
       <c r="C118">
-        <v>39526308</v>
+        <v>10731</v>
       </c>
       <c r="D118">
-        <v>0.85188809845401303</v>
+        <v>0.50092146022036599</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2685,13 +2658,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>1399491</v>
+        <v>18383956</v>
       </c>
       <c r="C119">
-        <v>10824</v>
+        <v>91586</v>
       </c>
       <c r="D119">
-        <v>0.77342405203034503</v>
+        <v>0.49818439513236401</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2699,13 +2672,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>28435943</v>
+        <v>126476458</v>
       </c>
       <c r="C120">
-        <v>197683</v>
+        <v>593264</v>
       </c>
       <c r="D120">
-        <v>0.695187073627205</v>
+        <v>0.46907069456356898</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2713,13 +2686,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>273523621</v>
+        <v>164689383</v>
       </c>
       <c r="C121">
-        <v>1668368</v>
+        <v>759132</v>
       </c>
       <c r="D121">
-        <v>0.60995390229935598</v>
+        <v>0.46094774670447303</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2727,13 +2700,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>1402985</v>
+        <v>869595</v>
       </c>
       <c r="C122">
-        <v>7694</v>
+        <v>3834</v>
       </c>
       <c r="D122">
-        <v>0.54840215682990201</v>
+        <v>0.440894899349697</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2741,13 +2714,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>21413250</v>
+        <v>4649660</v>
       </c>
       <c r="C123">
-        <v>108146</v>
+        <v>18402</v>
       </c>
       <c r="D123">
-        <v>0.50504243867698695</v>
+        <v>0.39577087356925</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2755,13 +2728,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>2142252</v>
+        <v>220892331</v>
       </c>
       <c r="C124">
-        <v>10731</v>
+        <v>825519</v>
       </c>
       <c r="D124">
-        <v>0.50092146022036599</v>
+        <v>0.373720081753314</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2769,13 +2742,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>18383956</v>
+        <v>31072945</v>
       </c>
       <c r="C125">
-        <v>91586</v>
+        <v>92562</v>
       </c>
       <c r="D125">
-        <v>0.49818439513236401</v>
+        <v>0.29788615144139102</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2783,13 +2756,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>126476458</v>
+        <v>53771300</v>
       </c>
       <c r="C126">
-        <v>593264</v>
+        <v>159318</v>
       </c>
       <c r="D126">
-        <v>0.46907069456356898</v>
+        <v>0.29628816859551499</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2797,13 +2770,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>164689383</v>
+        <v>43851043</v>
       </c>
       <c r="C127">
-        <v>759132</v>
+        <v>122108</v>
       </c>
       <c r="D127">
-        <v>0.46094774670447303</v>
+        <v>0.27846087948238801</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2811,13 +2784,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>869595</v>
+        <v>26545864</v>
       </c>
       <c r="C128">
-        <v>3834</v>
+        <v>72250</v>
       </c>
       <c r="D128">
-        <v>0.440894899349697</v>
+        <v>0.27217045939811901</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2825,13 +2798,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>4649660</v>
+        <v>33469199</v>
       </c>
       <c r="C129">
-        <v>18402</v>
+        <v>90808</v>
       </c>
       <c r="D129">
-        <v>0.39577087356925</v>
+        <v>0.27131811550076201</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2839,13 +2812,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>220892331</v>
+        <v>54409794</v>
       </c>
       <c r="C130">
-        <v>825519</v>
+        <v>142817</v>
       </c>
       <c r="D130">
-        <v>0.373720081753314</v>
+        <v>0.26248399323107202</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2853,13 +2826,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>1340598113</v>
+        <v>14862927</v>
       </c>
       <c r="C131">
-        <v>4557699</v>
+        <v>38257</v>
       </c>
       <c r="D131">
-        <v>0.33997504216985303</v>
+        <v>0.25739882864256802</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2867,13 +2840,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>31072945</v>
+        <v>2416664</v>
       </c>
       <c r="C132">
-        <v>92562</v>
+        <v>5898</v>
       </c>
       <c r="D132">
-        <v>0.29788615144139102</v>
+        <v>0.24405544171634899</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2881,13 +2854,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>53771300</v>
+        <v>71991</v>
       </c>
       <c r="C133">
-        <v>159318</v>
+        <v>174</v>
       </c>
       <c r="D133">
-        <v>0.29628816859551499</v>
+        <v>0.241696878776514</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2895,13 +2868,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>43851043</v>
+        <v>16743930</v>
       </c>
       <c r="C134">
-        <v>122108</v>
+        <v>40344</v>
       </c>
       <c r="D134">
-        <v>0.27846087948238801</v>
+        <v>0.24094701781481401</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2909,13 +2882,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>26545864</v>
+        <v>51269183</v>
       </c>
       <c r="C135">
-        <v>72250</v>
+        <v>122634</v>
       </c>
       <c r="D135">
-        <v>0.27217045939811901</v>
+        <v>0.239196321891847</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2923,13 +2896,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>33469199</v>
+        <v>114963583</v>
       </c>
       <c r="C136">
-        <v>90808</v>
+        <v>257442</v>
       </c>
       <c r="D136">
-        <v>0.27131811550076201</v>
+        <v>0.223933521626583</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2937,13 +2910,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>54409794</v>
+        <v>31255435</v>
       </c>
       <c r="C137">
-        <v>142817</v>
+        <v>69917</v>
       </c>
       <c r="D137">
-        <v>0.26248399323107202</v>
+        <v>0.223695494879531</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2951,13 +2924,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>14862927</v>
+        <v>102334403</v>
       </c>
       <c r="C138">
-        <v>38257</v>
+        <v>227552</v>
       </c>
       <c r="D138">
-        <v>0.25739882864256802</v>
+        <v>0.22236119362517801</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2965,13 +2938,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>2416664</v>
+        <v>12952209</v>
       </c>
       <c r="C139">
-        <v>5898</v>
+        <v>25116</v>
       </c>
       <c r="D139">
-        <v>0.24405544171634899</v>
+        <v>0.19391286845355901</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2979,13 +2952,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>71991</v>
+        <v>5518092</v>
       </c>
       <c r="C140">
-        <v>174</v>
+        <v>10678</v>
       </c>
       <c r="D140">
-        <v>0.241696878776514</v>
+        <v>0.19350891576291199</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2993,13 +2966,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>16743930</v>
+        <v>1967998</v>
       </c>
       <c r="C141">
-        <v>40344</v>
+        <v>3734</v>
       </c>
       <c r="D141">
-        <v>0.24094701781481401</v>
+        <v>0.18973596517882599</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3007,13 +2980,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>51269183</v>
+        <v>19129955</v>
       </c>
       <c r="C142">
-        <v>122634</v>
+        <v>34078</v>
       </c>
       <c r="D142">
-        <v>0.239196321891847</v>
+        <v>0.17813946765687599</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3021,13 +2994,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>114963583</v>
+        <v>26378275</v>
       </c>
       <c r="C143">
-        <v>257442</v>
+        <v>46036</v>
       </c>
       <c r="D143">
-        <v>0.223933521626583</v>
+        <v>0.17452240527479501</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3035,13 +3008,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>31255435</v>
+        <v>1318442</v>
       </c>
       <c r="C144">
-        <v>69917</v>
+        <v>2276</v>
       </c>
       <c r="D144">
-        <v>0.223695494879531</v>
+        <v>0.17262799577076601</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3049,13 +3022,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>102334403</v>
+        <v>13132792</v>
       </c>
       <c r="C145">
-        <v>227552</v>
+        <v>22215</v>
       </c>
       <c r="D145">
-        <v>0.22236119362517801</v>
+        <v>0.16915671854088599</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3063,13 +3036,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>12952209</v>
+        <v>8278737</v>
       </c>
       <c r="C146">
-        <v>25116</v>
+        <v>12967</v>
       </c>
       <c r="D146">
-        <v>0.19391286845355901</v>
+        <v>0.15663017196946799</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3077,13 +3050,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>5518092</v>
+        <v>38928341</v>
       </c>
       <c r="C147">
-        <v>10678</v>
+        <v>59745</v>
       </c>
       <c r="D147">
-        <v>0.19350891576291199</v>
+        <v>0.15347430295064499</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3091,13 +3064,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>1967998</v>
+        <v>112519</v>
       </c>
       <c r="C148">
-        <v>3734</v>
+        <v>160</v>
       </c>
       <c r="D148">
-        <v>0.18973596517882599</v>
+        <v>0.14219820652512</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3105,13 +3078,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>19129955</v>
+        <v>9537642</v>
       </c>
       <c r="C149">
-        <v>34078</v>
+        <v>13308</v>
       </c>
       <c r="D149">
-        <v>0.17813946765687599</v>
+        <v>0.139531343281704</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3119,13 +3092,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>26378275</v>
+        <v>771612</v>
       </c>
       <c r="C150">
-        <v>46036</v>
+        <v>1074</v>
       </c>
       <c r="D150">
-        <v>0.17452240527479501</v>
+        <v>0.139189126141118</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3133,13 +3106,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>1318442</v>
+        <v>27691019</v>
       </c>
       <c r="C151">
-        <v>2276</v>
+        <v>37014</v>
       </c>
       <c r="D151">
-        <v>0.17262799577076601</v>
+        <v>0.13366788705030999</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3147,13 +3120,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>13132792</v>
+        <v>4829764</v>
       </c>
       <c r="C152">
-        <v>22215</v>
+        <v>6411</v>
       </c>
       <c r="D152">
-        <v>0.16915671854088599</v>
+        <v>0.13273940507238</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3161,13 +3134,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>8278737</v>
+        <v>17500657</v>
       </c>
       <c r="C153">
-        <v>12967</v>
+        <v>22733</v>
       </c>
       <c r="D153">
-        <v>0.15663017196946799</v>
+        <v>0.129897980401536</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3175,13 +3148,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>38928341</v>
+        <v>8947027</v>
       </c>
       <c r="C154">
-        <v>59745</v>
+        <v>10997</v>
       </c>
       <c r="D154">
-        <v>0.15347430295064499</v>
+        <v>0.12291233724901</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3189,13 +3162,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>112519</v>
+        <v>25499881</v>
       </c>
       <c r="C155">
-        <v>160</v>
+        <v>29811</v>
       </c>
       <c r="D155">
-        <v>0.14219820652512</v>
+        <v>0.116906427916271</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3203,13 +3176,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>9537642</v>
+        <v>11402533</v>
       </c>
       <c r="C156">
-        <v>13308</v>
+        <v>13056</v>
       </c>
       <c r="D156">
-        <v>0.139531343281704</v>
+        <v>0.11450087449867501</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3217,13 +3190,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>771612</v>
+        <v>6624554</v>
       </c>
       <c r="C157">
-        <v>1074</v>
+        <v>6898</v>
       </c>
       <c r="D157">
-        <v>0.139189126141118</v>
+        <v>0.104127764676686</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3231,13 +3204,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>27691019</v>
+        <v>3546427</v>
       </c>
       <c r="C158">
-        <v>37014</v>
+        <v>3671</v>
       </c>
       <c r="D158">
-        <v>0.13366788705030999</v>
+        <v>0.103512633983443</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3245,13 +3218,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>4829764</v>
+        <v>1271767</v>
       </c>
       <c r="C159">
-        <v>6411</v>
+        <v>1209</v>
       </c>
       <c r="D159">
-        <v>0.13273940507238</v>
+        <v>9.5064583371010605E-2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3259,13 +3232,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>17500657</v>
+        <v>11193729</v>
       </c>
       <c r="C160">
-        <v>22733</v>
+        <v>10583</v>
       </c>
       <c r="D160">
-        <v>0.129897980401536</v>
+        <v>9.4544007631415794E-2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3273,13 +3246,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>8947027</v>
+        <v>69799978</v>
       </c>
       <c r="C161">
-        <v>10997</v>
+        <v>65153</v>
       </c>
       <c r="D161">
-        <v>0.12291233724901</v>
+        <v>9.3342436297043002E-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3287,13 +3260,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>25499881</v>
+        <v>45741000</v>
       </c>
       <c r="C162">
-        <v>29811</v>
+        <v>41866</v>
       </c>
       <c r="D162">
-        <v>0.116906427916271</v>
+        <v>9.1528388098205099E-2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3301,13 +3274,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>11402533</v>
+        <v>15893219</v>
       </c>
       <c r="C163">
-        <v>13056</v>
+        <v>13915</v>
       </c>
       <c r="D163">
-        <v>0.11450087449867501</v>
+        <v>8.7553062724423494E-2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3315,13 +3288,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>6624554</v>
+        <v>53192</v>
       </c>
       <c r="C164">
-        <v>6898</v>
+        <v>44</v>
       </c>
       <c r="D164">
-        <v>0.104127764676686</v>
+        <v>8.2719205895623399E-2</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3329,13 +3302,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>3546427</v>
+        <v>32866268</v>
       </c>
       <c r="C165">
-        <v>3671</v>
+        <v>26652</v>
       </c>
       <c r="D165">
-        <v>0.103512633983443</v>
+        <v>8.1092261524794998E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3343,13 +3316,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>42677809</v>
+        <v>16718971</v>
       </c>
       <c r="C166">
-        <v>43570</v>
+        <v>13402</v>
       </c>
       <c r="D166">
-        <v>0.102090526718464</v>
+        <v>8.0160435711025504E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3357,13 +3330,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>1271767</v>
+        <v>206139587</v>
       </c>
       <c r="C167">
-        <v>1209</v>
+        <v>165110</v>
       </c>
       <c r="D167">
-        <v>9.5064583371010605E-2</v>
+        <v>8.0096211699502401E-2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3371,13 +3344,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>11193729</v>
+        <v>43849269</v>
       </c>
       <c r="C168">
-        <v>10583</v>
+        <v>33944</v>
       </c>
       <c r="D168">
-        <v>9.4544007631415794E-2</v>
+        <v>7.7410640528579794E-2</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3385,13 +3358,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>69799978</v>
+        <v>20250834</v>
       </c>
       <c r="C169">
-        <v>65153</v>
+        <v>13858</v>
       </c>
       <c r="D169">
-        <v>9.3342436297043002E-2</v>
+        <v>6.8431749526957797E-2</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3399,13 +3372,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>45741000</v>
+        <v>12123198</v>
       </c>
       <c r="C170">
-        <v>41866</v>
+        <v>7821</v>
       </c>
       <c r="D170">
-        <v>9.1528388098205099E-2</v>
+        <v>6.4512680564979594E-2</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3413,13 +3386,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>15893219</v>
+        <v>20903278</v>
       </c>
       <c r="C171">
-        <v>13915</v>
+        <v>13310</v>
       </c>
       <c r="D171">
-        <v>8.7553062724423494E-2</v>
+        <v>6.3674223727015505E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3427,13 +3400,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>53192</v>
+        <v>4822233</v>
       </c>
       <c r="C172">
-        <v>44</v>
+        <v>2613</v>
       </c>
       <c r="D172">
-        <v>8.2719205895623399E-2</v>
+        <v>5.4186514836591301E-2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3441,13 +3414,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>32866268</v>
+        <v>437483</v>
       </c>
       <c r="C173">
-        <v>26652</v>
+        <v>224</v>
       </c>
       <c r="D173">
-        <v>8.1092261524794998E-2</v>
+        <v>5.1201989563023E-2</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3455,13 +3428,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>16718971</v>
+        <v>7976985</v>
       </c>
       <c r="C174">
-        <v>13402</v>
+        <v>4054</v>
       </c>
       <c r="D174">
-        <v>8.0160435711025504E-2</v>
+        <v>5.0821206257752799E-2</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3469,13 +3442,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>206139587</v>
+        <v>5057677</v>
       </c>
       <c r="C175">
-        <v>165110</v>
+        <v>2099</v>
       </c>
       <c r="D175">
-        <v>8.0096211699502401E-2</v>
+        <v>4.1501266292805997E-2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3483,13 +3456,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>43849269</v>
+        <v>11890781</v>
       </c>
       <c r="C176">
-        <v>33944</v>
+        <v>3995</v>
       </c>
       <c r="D176">
-        <v>7.7410640528579794E-2</v>
+        <v>3.3597456718780699E-2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3497,13 +3470,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>20250834</v>
+        <v>89561404</v>
       </c>
       <c r="C177">
-        <v>13858</v>
+        <v>29853</v>
       </c>
       <c r="D177">
-        <v>6.8431749526957797E-2</v>
+        <v>3.3332438602682E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3511,13 +3484,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>12123198</v>
+        <v>16425859</v>
       </c>
       <c r="C178">
-        <v>7821</v>
+        <v>4817</v>
       </c>
       <c r="D178">
-        <v>6.4512680564979594E-2</v>
+        <v>2.93257113676673E-2</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3525,13 +3498,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>20903278</v>
+        <v>24206636</v>
       </c>
       <c r="C179">
-        <v>13310</v>
+        <v>5228</v>
       </c>
       <c r="D179">
-        <v>6.3674223727015505E-2</v>
+        <v>2.15973834612955E-2</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3539,13 +3512,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>4822233</v>
+        <v>29825968</v>
       </c>
       <c r="C180">
-        <v>2613</v>
+        <v>6317</v>
       </c>
       <c r="D180">
-        <v>5.4186514836591301E-2</v>
+        <v>2.11795305352705E-2</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3553,13 +3526,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>437483</v>
+        <v>896444</v>
       </c>
       <c r="C181">
-        <v>224</v>
+        <v>117</v>
       </c>
       <c r="D181">
-        <v>5.1201989563023E-2</v>
+        <v>1.3051568196117099E-2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3567,13 +3540,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>7976985</v>
+        <v>7275556</v>
       </c>
       <c r="C182">
-        <v>4054</v>
+        <v>757</v>
       </c>
       <c r="D182">
-        <v>5.0821206257752799E-2</v>
+        <v>1.04047030907329E-2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3581,13 +3554,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>5057677</v>
+        <v>1439323774</v>
       </c>
       <c r="C183">
-        <v>2099</v>
+        <v>102494</v>
       </c>
       <c r="D183">
-        <v>4.1501266292805997E-2</v>
+        <v>7.1209829123547799E-3</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3595,13 +3568,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>11890781</v>
+        <v>59194</v>
       </c>
       <c r="C184">
-        <v>3995</v>
+        <v>4</v>
       </c>
       <c r="D184">
-        <v>3.3597456718780699E-2</v>
+        <v>6.7574416325978997E-3</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3609,13 +3582,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>89561404</v>
+        <v>23816775</v>
       </c>
       <c r="C185">
-        <v>29853</v>
+        <v>1128</v>
       </c>
       <c r="D185">
-        <v>3.3332438602682E-2</v>
+        <v>4.7361576032019497E-3</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3623,13 +3596,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>16425859</v>
+        <v>97338583</v>
       </c>
       <c r="C186">
-        <v>4817</v>
+        <v>2928</v>
       </c>
       <c r="D186">
-        <v>2.93257113676673E-2</v>
+        <v>3.0080569387372301E-3</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3637,13 +3610,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>24206636</v>
+        <v>686878</v>
       </c>
       <c r="C187">
-        <v>5228</v>
+        <v>20</v>
       </c>
       <c r="D187">
-        <v>2.15973834612955E-2</v>
+        <v>2.9117252263138401E-3</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3651,13 +3624,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>29825968</v>
+        <v>198410</v>
       </c>
       <c r="C188">
-        <v>6317</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>2.11795305352705E-2</v>
+        <v>1.5120205634796601E-3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3665,13 +3638,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>896444</v>
+        <v>307150</v>
       </c>
       <c r="C189">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="D189">
-        <v>1.3051568196117099E-2</v>
+        <v>1.3022952954582501E-3</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3679,13 +3652,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>7275556</v>
+        <v>115021</v>
       </c>
       <c r="C190">
-        <v>757</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>1.04047030907329E-2</v>
+        <v>8.6940645621234403E-4</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3693,13 +3666,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>1439323774</v>
+        <v>59734213</v>
       </c>
       <c r="C191">
-        <v>102494</v>
+        <v>509</v>
       </c>
       <c r="D191">
-        <v>7.1209829123547799E-3</v>
+        <v>8.5210798709275698E-4</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3707,69 +3680,69 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>59194</v>
-      </c>
-      <c r="C192">
-        <v>4</v>
-      </c>
-      <c r="D192">
-        <v>6.7574416325978997E-3</v>
+        <v>164100</v>
+      </c>
+      <c r="C192" t="s">
+        <v>214</v>
+      </c>
+      <c r="D192" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B193">
-        <v>23816775</v>
-      </c>
-      <c r="C193">
-        <v>1128</v>
-      </c>
-      <c r="D193">
-        <v>4.7361576032019497E-3</v>
+        <v>101073</v>
+      </c>
+      <c r="C193" t="s">
+        <v>214</v>
+      </c>
+      <c r="D193" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B194">
-        <v>97338583</v>
-      </c>
-      <c r="C194">
-        <v>2928</v>
-      </c>
-      <c r="D194">
-        <v>3.0080569387372301E-3</v>
+        <v>105697</v>
+      </c>
+      <c r="C194" t="s">
+        <v>214</v>
+      </c>
+      <c r="D194" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B195">
-        <v>686878</v>
-      </c>
-      <c r="C195">
-        <v>20</v>
-      </c>
-      <c r="D195">
-        <v>2.9117252263138401E-3</v>
+        <v>106766</v>
+      </c>
+      <c r="C195" t="s">
+        <v>214</v>
+      </c>
+      <c r="D195" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B196">
-        <v>198410</v>
-      </c>
-      <c r="C196">
-        <v>3</v>
-      </c>
-      <c r="D196">
-        <v>1.5120205634796601E-3</v>
+        <v>85032</v>
+      </c>
+      <c r="C196" t="s">
+        <v>214</v>
+      </c>
+      <c r="D196" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -3777,13 +3750,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>307150</v>
-      </c>
-      <c r="C197">
-        <v>4</v>
-      </c>
-      <c r="D197">
-        <v>1.3022952954582501E-3</v>
+        <v>62273</v>
+      </c>
+      <c r="C197" t="s">
+        <v>214</v>
+      </c>
+      <c r="D197" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -3791,13 +3764,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>115021</v>
-      </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-      <c r="D198">
-        <v>8.6940645621234403E-4</v>
+        <v>65720</v>
+      </c>
+      <c r="C198" t="s">
+        <v>214</v>
+      </c>
+      <c r="D198" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -3805,13 +3778,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>59734213</v>
-      </c>
-      <c r="C199">
-        <v>509</v>
-      </c>
-      <c r="D199">
-        <v>8.5210798709275698E-4</v>
+        <v>67052</v>
+      </c>
+      <c r="C199" t="s">
+        <v>214</v>
+      </c>
+      <c r="D199" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -3819,293 +3792,167 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>164100</v>
+        <v>56772</v>
       </c>
       <c r="C200" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D200" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>204</v>
-      </c>
-      <c r="B201">
-        <v>85032</v>
+        <v>211</v>
+      </c>
+      <c r="B201" t="s">
+        <v>214</v>
       </c>
       <c r="C201" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D201" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B202">
-        <v>101073</v>
+        <v>3483</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D202" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B203">
-        <v>105697</v>
+        <v>4999</v>
       </c>
       <c r="C203" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D203" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B204">
-        <v>106766</v>
+        <v>6071</v>
       </c>
       <c r="C204" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D204" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B205">
-        <v>62273</v>
+        <v>10834</v>
       </c>
       <c r="C205" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D205" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B206">
-        <v>65720</v>
+        <v>15002</v>
       </c>
       <c r="C206" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D206" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B207">
-        <v>67052</v>
+        <v>33691</v>
       </c>
       <c r="C207" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D207" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B208">
-        <v>56772</v>
+        <v>48865</v>
       </c>
       <c r="C208" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D208" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B209">
-        <v>48865</v>
+        <v>38718</v>
       </c>
       <c r="C209" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D209" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B210">
-        <v>3483</v>
+        <v>649342</v>
       </c>
       <c r="C210" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D210" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B211">
-        <v>4999</v>
+        <v>7496988</v>
       </c>
       <c r="C211" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D211" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>215</v>
-      </c>
-      <c r="B212">
-        <v>6071</v>
-      </c>
-      <c r="C212" t="s">
-        <v>203</v>
-      </c>
-      <c r="D212" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>216</v>
-      </c>
-      <c r="B213">
-        <v>10834</v>
-      </c>
-      <c r="C213" t="s">
-        <v>203</v>
-      </c>
-      <c r="D213" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>217</v>
-      </c>
-      <c r="B214">
-        <v>15002</v>
-      </c>
-      <c r="C214" t="s">
-        <v>203</v>
-      </c>
-      <c r="D214" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>218</v>
-      </c>
-      <c r="B215">
-        <v>33691</v>
-      </c>
-      <c r="C215" t="s">
-        <v>203</v>
-      </c>
-      <c r="D215" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>219</v>
-      </c>
-      <c r="B216">
-        <v>38718</v>
-      </c>
-      <c r="C216" t="s">
-        <v>203</v>
-      </c>
-      <c r="D216" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>220</v>
-      </c>
-      <c r="B217" t="s">
-        <v>203</v>
-      </c>
-      <c r="C217">
-        <v>721</v>
-      </c>
-      <c r="D217" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>221</v>
-      </c>
-      <c r="B218" t="s">
-        <v>203</v>
-      </c>
-      <c r="C218" t="s">
-        <v>203</v>
-      </c>
-      <c r="D218" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>222</v>
-      </c>
-      <c r="B219">
-        <v>649342</v>
-      </c>
-      <c r="C219" t="s">
-        <v>203</v>
-      </c>
-      <c r="D219" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>223</v>
-      </c>
-      <c r="B220">
-        <v>7496988</v>
-      </c>
-      <c r="C220" t="s">
-        <v>203</v>
-      </c>
-      <c r="D220" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
